--- a/Output/6_WorkShop_Input_By_Province.xlsx
+++ b/Output/6_WorkShop_Input_By_Province.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N673"/>
+  <dimension ref="A1:M673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,6 @@
           <t>Input_Value_Payable_Service</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>مواد مصرفی غذای طبخ‌شده توسط کارگاه</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -547,7 +542,6 @@
       <c r="M2" t="n">
         <v>5783633</v>
       </c>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,7 +585,6 @@
       <c r="M3" t="n">
         <v>230242</v>
       </c>
-      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -635,7 +628,6 @@
       <c r="M4" t="n">
         <v>31276</v>
       </c>
-      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -679,7 +671,6 @@
       <c r="M5" t="n">
         <v>10457</v>
       </c>
-      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -723,7 +714,6 @@
       <c r="M6" t="n">
         <v>1337401</v>
       </c>
-      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -767,7 +757,6 @@
       <c r="M7" t="n">
         <v>37111</v>
       </c>
-      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -811,7 +800,6 @@
       <c r="M8" t="n">
         <v>4660</v>
       </c>
-      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -855,7 +843,6 @@
       <c r="M9" t="n">
         <v>25374</v>
       </c>
-      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -899,7 +886,6 @@
       <c r="M10" t="n">
         <v>1928599</v>
       </c>
-      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -943,7 +929,6 @@
       <c r="M11" t="n">
         <v>7233</v>
       </c>
-      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -987,7 +972,6 @@
       <c r="M12" t="n">
         <v>3564</v>
       </c>
-      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1031,7 +1015,6 @@
       <c r="M13" t="n">
         <v>105399</v>
       </c>
-      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1075,7 +1058,6 @@
       <c r="M14" t="n">
         <v>2882</v>
       </c>
-      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1119,7 +1101,6 @@
       <c r="M15" t="n">
         <v>841502</v>
       </c>
-      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1163,7 +1144,6 @@
       <c r="M16" t="n">
         <v>57746</v>
       </c>
-      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1207,7 +1187,6 @@
       <c r="M17" t="n">
         <v>25767</v>
       </c>
-      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1251,7 +1230,6 @@
       <c r="M18" t="n">
         <v>12730</v>
       </c>
-      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1295,7 +1273,6 @@
       <c r="M19" t="n">
         <v>193233</v>
       </c>
-      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1339,7 +1316,6 @@
       <c r="M20" t="n">
         <v>212218</v>
       </c>
-      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1383,7 +1359,6 @@
       <c r="M21" t="n">
         <v>26187</v>
       </c>
-      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1427,7 +1402,6 @@
       <c r="M22" t="n">
         <v>14606</v>
       </c>
-      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1471,7 +1445,6 @@
       <c r="M23" t="n">
         <v>79069</v>
       </c>
-      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1515,7 +1488,6 @@
       <c r="M24" t="n">
         <v>17230</v>
       </c>
-      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1559,7 +1531,6 @@
       <c r="M25" t="n">
         <v>1311</v>
       </c>
-      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1603,7 +1574,6 @@
       <c r="M26" t="n">
         <v>16995</v>
       </c>
-      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1647,7 +1617,6 @@
       <c r="M27" t="n">
         <v>51898</v>
       </c>
-      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1691,7 +1660,6 @@
       <c r="M28" t="n">
         <v>27834</v>
       </c>
-      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1735,7 +1703,6 @@
       <c r="M29" t="n">
         <v>93660</v>
       </c>
-      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1779,7 +1746,6 @@
       <c r="M30" t="n">
         <v>272597</v>
       </c>
-      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1823,7 +1789,6 @@
       <c r="M31" t="n">
         <v>56021</v>
       </c>
-      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1867,7 +1832,6 @@
       <c r="M32" t="n">
         <v>21991</v>
       </c>
-      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1911,7 +1875,6 @@
       <c r="M33" t="n">
         <v>36842</v>
       </c>
-      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1955,7 +1918,6 @@
       <c r="M34" t="n">
         <v>7771666</v>
       </c>
-      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1999,7 +1961,6 @@
       <c r="M35" t="n">
         <v>315854</v>
       </c>
-      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2043,7 +2004,6 @@
       <c r="M36" t="n">
         <v>38390</v>
       </c>
-      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2087,7 +2047,6 @@
       <c r="M37" t="n">
         <v>11543</v>
       </c>
-      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2131,7 +2090,6 @@
       <c r="M38" t="n">
         <v>1160725</v>
       </c>
-      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2175,7 +2133,6 @@
       <c r="M39" t="n">
         <v>56922</v>
       </c>
-      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2219,7 +2176,6 @@
       <c r="M40" t="n">
         <v>3012</v>
       </c>
-      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2263,7 +2219,6 @@
       <c r="M41" t="n">
         <v>45433</v>
       </c>
-      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2307,7 +2262,6 @@
       <c r="M42" t="n">
         <v>2011521</v>
       </c>
-      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2351,7 +2305,6 @@
       <c r="M43" t="n">
         <v>12921</v>
       </c>
-      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2395,7 +2348,6 @@
       <c r="M44" t="n">
         <v>7729</v>
       </c>
-      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2439,7 +2391,6 @@
       <c r="M45" t="n">
         <v>165956</v>
       </c>
-      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2483,7 +2434,6 @@
       <c r="M46" t="n">
         <v>5535</v>
       </c>
-      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2527,7 +2477,6 @@
       <c r="M47" t="n">
         <v>1062791</v>
       </c>
-      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2571,7 +2520,6 @@
       <c r="M48" t="n">
         <v>75555</v>
       </c>
-      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2615,7 +2563,6 @@
       <c r="M49" t="n">
         <v>39101</v>
       </c>
-      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2659,7 +2606,6 @@
       <c r="M50" t="n">
         <v>16343</v>
       </c>
-      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2703,7 +2649,6 @@
       <c r="M51" t="n">
         <v>218866</v>
       </c>
-      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2747,7 +2692,6 @@
       <c r="M52" t="n">
         <v>269531</v>
       </c>
-      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2791,7 +2735,6 @@
       <c r="M53" t="n">
         <v>28824</v>
       </c>
-      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2835,7 +2778,6 @@
       <c r="M54" t="n">
         <v>19472</v>
       </c>
-      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2879,7 +2821,6 @@
       <c r="M55" t="n">
         <v>90164</v>
       </c>
-      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2923,7 +2864,6 @@
       <c r="M56" t="n">
         <v>42826</v>
       </c>
-      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2967,7 +2907,6 @@
       <c r="M57" t="n">
         <v>3062</v>
       </c>
-      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3011,7 +2950,6 @@
       <c r="M58" t="n">
         <v>26056</v>
       </c>
-      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3055,7 +2993,6 @@
       <c r="M59" t="n">
         <v>61268</v>
       </c>
-      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3099,7 +3036,6 @@
       <c r="M60" t="n">
         <v>48036</v>
       </c>
-      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3143,7 +3079,6 @@
       <c r="M61" t="n">
         <v>83778</v>
       </c>
-      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3187,7 +3122,6 @@
       <c r="M62" t="n">
         <v>315583</v>
       </c>
-      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3231,7 +3165,6 @@
       <c r="M63" t="n">
         <v>1435539</v>
       </c>
-      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3275,7 +3208,6 @@
       <c r="M64" t="n">
         <v>16820</v>
       </c>
-      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3319,7 +3251,6 @@
       <c r="M65" t="n">
         <v>82510</v>
       </c>
-      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3363,7 +3294,6 @@
       <c r="M66" t="n">
         <v>8604380</v>
       </c>
-      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3407,7 +3337,6 @@
       <c r="M67" t="n">
         <v>435043</v>
       </c>
-      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3451,7 +3380,6 @@
       <c r="M68" t="n">
         <v>56473</v>
       </c>
-      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3495,7 +3423,6 @@
       <c r="M69" t="n">
         <v>25426</v>
       </c>
-      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3539,7 +3466,6 @@
       <c r="M70" t="n">
         <v>805344</v>
       </c>
-      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3583,7 +3509,6 @@
       <c r="M71" t="n">
         <v>206842</v>
       </c>
-      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3627,7 +3552,6 @@
       <c r="M72" t="n">
         <v>1925</v>
       </c>
-      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3671,7 +3595,6 @@
       <c r="M73" t="n">
         <v>126472</v>
       </c>
-      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3715,7 +3638,6 @@
       <c r="M74" t="n">
         <v>2671268</v>
       </c>
-      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3759,7 +3681,6 @@
       <c r="M75" t="n">
         <v>12399</v>
       </c>
-      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3803,7 +3724,6 @@
       <c r="M76" t="n">
         <v>4450</v>
       </c>
-      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3847,7 +3767,6 @@
       <c r="M77" t="n">
         <v>244509</v>
       </c>
-      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3891,7 +3810,6 @@
       <c r="M78" t="n">
         <v>57954</v>
       </c>
-      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3935,7 +3853,6 @@
       <c r="M79" t="n">
         <v>854733</v>
       </c>
-      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3979,7 +3896,6 @@
       <c r="M80" t="n">
         <v>90992</v>
       </c>
-      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4023,7 +3939,6 @@
       <c r="M81" t="n">
         <v>54053</v>
       </c>
-      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4067,7 +3982,6 @@
       <c r="M82" t="n">
         <v>13697</v>
       </c>
-      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4111,7 +4025,6 @@
       <c r="M83" t="n">
         <v>293890</v>
       </c>
-      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4155,7 +4068,6 @@
       <c r="M84" t="n">
         <v>312998</v>
       </c>
-      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4199,7 +4111,6 @@
       <c r="M85" t="n">
         <v>31660</v>
       </c>
-      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4243,7 +4154,6 @@
       <c r="M86" t="n">
         <v>19922</v>
       </c>
-      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4287,7 +4197,6 @@
       <c r="M87" t="n">
         <v>121367</v>
       </c>
-      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4331,7 +4240,6 @@
       <c r="M88" t="n">
         <v>55630</v>
       </c>
-      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4375,7 +4283,6 @@
       <c r="M89" t="n">
         <v>5784</v>
       </c>
-      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4419,7 +4326,6 @@
       <c r="M90" t="n">
         <v>26471</v>
       </c>
-      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4463,7 +4369,6 @@
       <c r="M91" t="n">
         <v>79686</v>
       </c>
-      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4507,7 +4412,6 @@
       <c r="M92" t="n">
         <v>59028</v>
       </c>
-      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4551,7 +4455,6 @@
       <c r="M93" t="n">
         <v>93904</v>
       </c>
-      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4595,7 +4498,6 @@
       <c r="M94" t="n">
         <v>550485</v>
       </c>
-      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4639,7 +4541,6 @@
       <c r="M95" t="n">
         <v>1168827</v>
       </c>
-      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4683,7 +4584,6 @@
       <c r="M96" t="n">
         <v>25418</v>
       </c>
-      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4727,7 +4627,6 @@
       <c r="M97" t="n">
         <v>97731</v>
       </c>
-      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4771,7 +4670,6 @@
       <c r="M98" t="n">
         <v>11092169</v>
       </c>
-      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4815,7 +4713,6 @@
       <c r="M99" t="n">
         <v>464105</v>
       </c>
-      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4859,7 +4756,6 @@
       <c r="M100" t="n">
         <v>93138</v>
       </c>
-      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4903,7 +4799,6 @@
       <c r="M101" t="n">
         <v>15123</v>
       </c>
-      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4947,7 +4842,6 @@
       <c r="M102" t="n">
         <v>918129</v>
       </c>
-      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4991,7 +4885,6 @@
       <c r="M103" t="n">
         <v>234499</v>
       </c>
-      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5035,7 +4928,6 @@
       <c r="M104" t="n">
         <v>5989</v>
       </c>
-      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -5079,7 +4971,6 @@
       <c r="M105" t="n">
         <v>212299</v>
       </c>
-      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -5123,7 +5014,6 @@
       <c r="M106" t="n">
         <v>4297751</v>
       </c>
-      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5167,7 +5057,6 @@
       <c r="M107" t="n">
         <v>14081</v>
       </c>
-      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5211,7 +5100,6 @@
       <c r="M108" t="n">
         <v>9590</v>
       </c>
-      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5255,7 +5143,6 @@
       <c r="M109" t="n">
         <v>403953</v>
       </c>
-      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5299,7 +5186,6 @@
       <c r="M110" t="n">
         <v>71440</v>
       </c>
-      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5343,7 +5229,6 @@
       <c r="M111" t="n">
         <v>782917</v>
       </c>
-      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5387,7 +5272,6 @@
       <c r="M112" t="n">
         <v>109623</v>
       </c>
-      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5431,7 +5315,6 @@
       <c r="M113" t="n">
         <v>205998</v>
       </c>
-      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5475,7 +5358,6 @@
       <c r="M114" t="n">
         <v>18018</v>
       </c>
-      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5519,7 +5401,6 @@
       <c r="M115" t="n">
         <v>330976</v>
       </c>
-      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5563,7 +5444,6 @@
       <c r="M116" t="n">
         <v>323321</v>
       </c>
-      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5607,7 +5487,6 @@
       <c r="M117" t="n">
         <v>43447</v>
       </c>
-      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5651,7 +5530,6 @@
       <c r="M118" t="n">
         <v>32061</v>
       </c>
-      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5695,7 +5573,6 @@
       <c r="M119" t="n">
         <v>79754</v>
       </c>
-      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5739,7 +5616,6 @@
       <c r="M120" t="n">
         <v>85787</v>
       </c>
-      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5783,7 +5659,6 @@
       <c r="M121" t="n">
         <v>6401</v>
       </c>
-      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5827,7 +5702,6 @@
       <c r="M122" t="n">
         <v>31151</v>
       </c>
-      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5871,7 +5745,6 @@
       <c r="M123" t="n">
         <v>79533</v>
       </c>
-      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5915,7 +5788,6 @@
       <c r="M124" t="n">
         <v>67443</v>
       </c>
-      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5959,7 +5831,6 @@
       <c r="M125" t="n">
         <v>115856</v>
       </c>
-      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6003,7 +5874,6 @@
       <c r="M126" t="n">
         <v>574990</v>
       </c>
-      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -6047,7 +5917,6 @@
       <c r="M127" t="n">
         <v>1308397</v>
       </c>
-      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -6091,7 +5960,6 @@
       <c r="M128" t="n">
         <v>41852</v>
       </c>
-      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6135,7 +6003,6 @@
       <c r="M129" t="n">
         <v>114544</v>
       </c>
-      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6179,7 +6046,6 @@
       <c r="M130" t="n">
         <v>16764374</v>
       </c>
-      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6223,7 +6089,6 @@
       <c r="M131" t="n">
         <v>569220</v>
       </c>
-      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6267,7 +6132,6 @@
       <c r="M132" t="n">
         <v>89048</v>
       </c>
-      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6311,7 +6175,6 @@
       <c r="M133" t="n">
         <v>24866</v>
       </c>
-      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6355,7 +6218,6 @@
       <c r="M134" t="n">
         <v>2382478</v>
       </c>
-      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -6399,7 +6261,6 @@
       <c r="M135" t="n">
         <v>288361</v>
       </c>
-      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6443,7 +6304,6 @@
       <c r="M136" t="n">
         <v>4864</v>
       </c>
-      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6487,7 +6347,6 @@
       <c r="M137" t="n">
         <v>309752</v>
       </c>
-      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -6531,7 +6390,6 @@
       <c r="M138" t="n">
         <v>6509030</v>
       </c>
-      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6575,7 +6433,6 @@
       <c r="M139" t="n">
         <v>14136</v>
       </c>
-      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6619,7 +6476,6 @@
       <c r="M140" t="n">
         <v>13725</v>
       </c>
-      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6663,7 +6519,6 @@
       <c r="M141" t="n">
         <v>412249</v>
       </c>
-      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -6707,7 +6562,6 @@
       <c r="M142" t="n">
         <v>107379</v>
       </c>
-      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -6751,7 +6605,6 @@
       <c r="M143" t="n">
         <v>1577036</v>
       </c>
-      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -6795,7 +6648,6 @@
       <c r="M144" t="n">
         <v>90945</v>
       </c>
-      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6839,7 +6691,6 @@
       <c r="M145" t="n">
         <v>75907</v>
       </c>
-      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -6883,7 +6734,6 @@
       <c r="M146" t="n">
         <v>20196</v>
       </c>
-      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6927,7 +6777,6 @@
       <c r="M147" t="n">
         <v>405186</v>
       </c>
-      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6971,7 +6820,6 @@
       <c r="M148" t="n">
         <v>356000</v>
       </c>
-      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -7015,7 +6863,6 @@
       <c r="M149" t="n">
         <v>69966</v>
       </c>
-      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -7059,7 +6906,6 @@
       <c r="M150" t="n">
         <v>61909</v>
       </c>
-      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -7103,7 +6949,6 @@
       <c r="M151" t="n">
         <v>227938</v>
       </c>
-      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -7147,7 +6992,6 @@
       <c r="M152" t="n">
         <v>99397</v>
       </c>
-      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -7191,7 +7035,6 @@
       <c r="M153" t="n">
         <v>10670</v>
       </c>
-      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -7235,7 +7078,6 @@
       <c r="M154" t="n">
         <v>45922</v>
       </c>
-      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -7279,7 +7121,6 @@
       <c r="M155" t="n">
         <v>146699</v>
       </c>
-      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -7323,7 +7164,6 @@
       <c r="M156" t="n">
         <v>85887</v>
       </c>
-      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -7367,7 +7207,6 @@
       <c r="M157" t="n">
         <v>193568</v>
       </c>
-      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -7411,7 +7250,6 @@
       <c r="M158" t="n">
         <v>818968</v>
       </c>
-      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -7455,7 +7293,6 @@
       <c r="M159" t="n">
         <v>1591101</v>
       </c>
-      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -7499,7 +7336,6 @@
       <c r="M160" t="n">
         <v>26497</v>
       </c>
-      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -7543,7 +7379,6 @@
       <c r="M161" t="n">
         <v>135476</v>
       </c>
-      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -7587,7 +7422,6 @@
       <c r="M162" t="n">
         <v>20089815</v>
       </c>
-      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -7631,7 +7465,6 @@
       <c r="M163" t="n">
         <v>759925</v>
       </c>
-      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -7675,7 +7508,6 @@
       <c r="M164" t="n">
         <v>60276</v>
       </c>
-      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -7719,7 +7551,6 @@
       <c r="M165" t="n">
         <v>34998</v>
       </c>
-      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -7763,7 +7594,6 @@
       <c r="M166" t="n">
         <v>2449081</v>
       </c>
-      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -7807,7 +7637,6 @@
       <c r="M167" t="n">
         <v>379268</v>
       </c>
-      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -7851,7 +7680,6 @@
       <c r="M168" t="n">
         <v>32128</v>
       </c>
-      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -7895,7 +7723,6 @@
       <c r="M169" t="n">
         <v>1210804</v>
       </c>
-      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -7939,7 +7766,6 @@
       <c r="M170" t="n">
         <v>6445879</v>
       </c>
-      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -7983,7 +7809,6 @@
       <c r="M171" t="n">
         <v>31439</v>
       </c>
-      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -8027,7 +7852,6 @@
       <c r="M172" t="n">
         <v>24114</v>
       </c>
-      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -8071,7 +7895,6 @@
       <c r="M173" t="n">
         <v>378675</v>
       </c>
-      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -8115,7 +7938,6 @@
       <c r="M174" t="n">
         <v>120198</v>
       </c>
-      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -8159,7 +7981,6 @@
       <c r="M175" t="n">
         <v>2629498</v>
       </c>
-      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -8203,7 +8024,6 @@
       <c r="M176" t="n">
         <v>211260</v>
       </c>
-      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -8247,7 +8067,6 @@
       <c r="M177" t="n">
         <v>116062</v>
       </c>
-      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -8291,7 +8110,6 @@
       <c r="M178" t="n">
         <v>26150</v>
       </c>
-      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -8335,7 +8153,6 @@
       <c r="M179" t="n">
         <v>419085</v>
       </c>
-      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -8379,7 +8196,6 @@
       <c r="M180" t="n">
         <v>501778</v>
       </c>
-      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -8423,7 +8239,6 @@
       <c r="M181" t="n">
         <v>107616</v>
       </c>
-      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -8467,7 +8282,6 @@
       <c r="M182" t="n">
         <v>30271</v>
       </c>
-      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -8511,7 +8325,6 @@
       <c r="M183" t="n">
         <v>250357</v>
       </c>
-      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -8555,7 +8368,6 @@
       <c r="M184" t="n">
         <v>164224</v>
       </c>
-      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -8599,7 +8411,6 @@
       <c r="M185" t="n">
         <v>13901</v>
       </c>
-      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -8643,7 +8454,6 @@
       <c r="M186" t="n">
         <v>58756</v>
       </c>
-      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -8687,7 +8497,6 @@
       <c r="M187" t="n">
         <v>224804</v>
       </c>
-      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -8731,7 +8540,6 @@
       <c r="M188" t="n">
         <v>106422</v>
       </c>
-      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -8775,7 +8583,6 @@
       <c r="M189" t="n">
         <v>405747</v>
       </c>
-      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -8819,7 +8626,6 @@
       <c r="M190" t="n">
         <v>801073</v>
       </c>
-      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -8863,7 +8669,6 @@
       <c r="M191" t="n">
         <v>1934623</v>
       </c>
-      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -8907,7 +8712,6 @@
       <c r="M192" t="n">
         <v>35867</v>
       </c>
-      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -8951,7 +8755,6 @@
       <c r="M193" t="n">
         <v>125534</v>
       </c>
-      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -8995,7 +8798,6 @@
       <c r="M194" t="n">
         <v>22582122</v>
       </c>
-      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -9039,7 +8841,6 @@
       <c r="M195" t="n">
         <v>708272</v>
       </c>
-      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -9083,7 +8884,6 @@
       <c r="M196" t="n">
         <v>79721</v>
       </c>
-      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -9127,7 +8927,6 @@
       <c r="M197" t="n">
         <v>49155</v>
       </c>
-      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -9171,7 +8970,6 @@
       <c r="M198" t="n">
         <v>3286287</v>
       </c>
-      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -9215,7 +9013,6 @@
       <c r="M199" t="n">
         <v>728958</v>
       </c>
-      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -9259,7 +9056,6 @@
       <c r="M200" t="n">
         <v>34880</v>
       </c>
-      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -9303,7 +9099,6 @@
       <c r="M201" t="n">
         <v>685391</v>
       </c>
-      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -9347,7 +9142,6 @@
       <c r="M202" t="n">
         <v>7392793</v>
       </c>
-      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -9391,7 +9185,6 @@
       <c r="M203" t="n">
         <v>54725</v>
       </c>
-      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -9435,7 +9228,6 @@
       <c r="M204" t="n">
         <v>40035</v>
       </c>
-      <c r="N204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -9479,7 +9271,6 @@
       <c r="M205" t="n">
         <v>482241</v>
       </c>
-      <c r="N205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -9523,7 +9314,6 @@
       <c r="M206" t="n">
         <v>99974</v>
       </c>
-      <c r="N206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -9567,7 +9357,6 @@
       <c r="M207" t="n">
         <v>3562014</v>
       </c>
-      <c r="N207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -9611,7 +9400,6 @@
       <c r="M208" t="n">
         <v>92194</v>
       </c>
-      <c r="N208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -9655,7 +9443,6 @@
       <c r="M209" t="n">
         <v>103891</v>
       </c>
-      <c r="N209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -9699,7 +9486,6 @@
       <c r="M210" t="n">
         <v>42391</v>
       </c>
-      <c r="N210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -9743,7 +9529,6 @@
       <c r="M211" t="n">
         <v>643189</v>
       </c>
-      <c r="N211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -9787,7 +9572,6 @@
       <c r="M212" t="n">
         <v>691686</v>
       </c>
-      <c r="N212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -9831,7 +9615,6 @@
       <c r="M213" t="n">
         <v>91223</v>
       </c>
-      <c r="N213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -9875,7 +9658,6 @@
       <c r="M214" t="n">
         <v>53049</v>
       </c>
-      <c r="N214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -9919,7 +9701,6 @@
       <c r="M215" t="n">
         <v>237954</v>
       </c>
-      <c r="N215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -9963,7 +9744,6 @@
       <c r="M216" t="n">
         <v>116679</v>
       </c>
-      <c r="N216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -10007,7 +9787,6 @@
       <c r="M217" t="n">
         <v>23806</v>
       </c>
-      <c r="N217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -10051,7 +9830,6 @@
       <c r="M218" t="n">
         <v>48645</v>
       </c>
-      <c r="N218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -10095,7 +9873,6 @@
       <c r="M219" t="n">
         <v>246301</v>
       </c>
-      <c r="N219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -10139,7 +9916,6 @@
       <c r="M220" t="n">
         <v>85526</v>
       </c>
-      <c r="N220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -10183,7 +9959,6 @@
       <c r="M221" t="n">
         <v>319874</v>
       </c>
-      <c r="N221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -10227,7 +10002,6 @@
       <c r="M222" t="n">
         <v>773115</v>
       </c>
-      <c r="N222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -10271,7 +10045,6 @@
       <c r="M223" t="n">
         <v>1616467</v>
       </c>
-      <c r="N223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -10315,7 +10088,6 @@
       <c r="M224" t="n">
         <v>45299</v>
       </c>
-      <c r="N224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -10359,7 +10131,6 @@
       <c r="M225" t="n">
         <v>146387</v>
       </c>
-      <c r="N225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -10403,7 +10174,6 @@
       <c r="M226" t="n">
         <v>25295935</v>
       </c>
-      <c r="N226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -10447,7 +10217,6 @@
       <c r="M227" t="n">
         <v>860820</v>
       </c>
-      <c r="N227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -10491,7 +10260,6 @@
       <c r="M228" t="n">
         <v>128270</v>
       </c>
-      <c r="N228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -10535,7 +10303,6 @@
       <c r="M229" t="n">
         <v>62782</v>
       </c>
-      <c r="N229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -10579,7 +10346,6 @@
       <c r="M230" t="n">
         <v>3483891</v>
       </c>
-      <c r="N230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -10623,7 +10389,6 @@
       <c r="M231" t="n">
         <v>838616</v>
       </c>
-      <c r="N231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -10667,7 +10432,6 @@
       <c r="M232" t="n">
         <v>53511</v>
       </c>
-      <c r="N232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -10711,7 +10475,6 @@
       <c r="M233" t="n">
         <v>1502811</v>
       </c>
-      <c r="N233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -10755,7 +10518,6 @@
       <c r="M234" t="n">
         <v>8996555</v>
       </c>
-      <c r="N234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -10799,7 +10561,6 @@
       <c r="M235" t="n">
         <v>64814</v>
       </c>
-      <c r="N235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -10843,7 +10604,6 @@
       <c r="M236" t="n">
         <v>50811</v>
       </c>
-      <c r="N236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -10887,7 +10647,6 @@
       <c r="M237" t="n">
         <v>553143</v>
       </c>
-      <c r="N237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -10931,7 +10690,6 @@
       <c r="M238" t="n">
         <v>67305</v>
       </c>
-      <c r="N238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -10975,7 +10733,6 @@
       <c r="M239" t="n">
         <v>2586004</v>
       </c>
-      <c r="N239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -11019,7 +10776,6 @@
       <c r="M240" t="n">
         <v>261668</v>
       </c>
-      <c r="N240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -11063,7 +10819,6 @@
       <c r="M241" t="n">
         <v>147544</v>
       </c>
-      <c r="N241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -11107,7 +10862,6 @@
       <c r="M242" t="n">
         <v>58807</v>
       </c>
-      <c r="N242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -11151,7 +10905,6 @@
       <c r="M243" t="n">
         <v>513107</v>
       </c>
-      <c r="N243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -11195,7 +10948,6 @@
       <c r="M244" t="n">
         <v>650351</v>
       </c>
-      <c r="N244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -11239,7 +10991,6 @@
       <c r="M245" t="n">
         <v>110514</v>
       </c>
-      <c r="N245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -11283,7 +11034,6 @@
       <c r="M246" t="n">
         <v>32591</v>
       </c>
-      <c r="N246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -11327,7 +11077,6 @@
       <c r="M247" t="n">
         <v>317265</v>
       </c>
-      <c r="N247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -11371,7 +11120,6 @@
       <c r="M248" t="n">
         <v>127995</v>
       </c>
-      <c r="N248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -11415,7 +11163,6 @@
       <c r="M249" t="n">
         <v>25235</v>
       </c>
-      <c r="N249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -11459,7 +11206,6 @@
       <c r="M250" t="n">
         <v>63183</v>
       </c>
-      <c r="N250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -11503,7 +11249,6 @@
       <c r="M251" t="n">
         <v>202007</v>
       </c>
-      <c r="N251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -11547,7 +11292,6 @@
       <c r="M252" t="n">
         <v>38394</v>
       </c>
-      <c r="N252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -11591,7 +11335,6 @@
       <c r="M253" t="n">
         <v>239684</v>
       </c>
-      <c r="N253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -11635,7 +11378,6 @@
       <c r="M254" t="n">
         <v>865768</v>
       </c>
-      <c r="N254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -11679,7 +11421,6 @@
       <c r="M255" t="n">
         <v>2134291</v>
       </c>
-      <c r="N255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -11723,7 +11464,6 @@
       <c r="M256" t="n">
         <v>78057</v>
       </c>
-      <c r="N256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -11767,7 +11507,6 @@
       <c r="M257" t="n">
         <v>180139</v>
       </c>
-      <c r="N257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -11811,7 +11550,6 @@
       <c r="M258" t="n">
         <v>26472442</v>
       </c>
-      <c r="N258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -11855,7 +11593,6 @@
       <c r="M259" t="n">
         <v>948485</v>
       </c>
-      <c r="N259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -11899,7 +11636,6 @@
       <c r="M260" t="n">
         <v>116337</v>
       </c>
-      <c r="N260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -11943,7 +11679,6 @@
       <c r="M261" t="n">
         <v>45532</v>
       </c>
-      <c r="N261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -11987,7 +11722,6 @@
       <c r="M262" t="n">
         <v>2296357</v>
       </c>
-      <c r="N262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -12031,7 +11765,6 @@
       <c r="M263" t="n">
         <v>716104</v>
       </c>
-      <c r="N263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -12075,7 +11808,6 @@
       <c r="M264" t="n">
         <v>17415</v>
       </c>
-      <c r="N264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -12119,7 +11851,6 @@
       <c r="M265" t="n">
         <v>1771747</v>
       </c>
-      <c r="N265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -12163,7 +11894,6 @@
       <c r="M266" t="n">
         <v>9957708</v>
       </c>
-      <c r="N266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -12207,7 +11937,6 @@
       <c r="M267" t="n">
         <v>78985</v>
       </c>
-      <c r="N267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -12251,7 +11980,6 @@
       <c r="M268" t="n">
         <v>50475</v>
       </c>
-      <c r="N268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -12295,7 +12023,6 @@
       <c r="M269" t="n">
         <v>649897</v>
       </c>
-      <c r="N269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -12339,7 +12066,6 @@
       <c r="M270" t="n">
         <v>131201</v>
       </c>
-      <c r="N270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -12383,7 +12109,6 @@
       <c r="M271" t="n">
         <v>2915815</v>
       </c>
-      <c r="N271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -12427,7 +12152,6 @@
       <c r="M272" t="n">
         <v>168939</v>
       </c>
-      <c r="N272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -12471,7 +12195,6 @@
       <c r="M273" t="n">
         <v>141649</v>
       </c>
-      <c r="N273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -12515,7 +12238,6 @@
       <c r="M274" t="n">
         <v>70054</v>
       </c>
-      <c r="N274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -12559,7 +12281,6 @@
       <c r="M275" t="n">
         <v>682609</v>
       </c>
-      <c r="N275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -12603,7 +12324,6 @@
       <c r="M276" t="n">
         <v>622814</v>
       </c>
-      <c r="N276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -12647,7 +12367,6 @@
       <c r="M277" t="n">
         <v>131621</v>
       </c>
-      <c r="N277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -12691,7 +12410,6 @@
       <c r="M278" t="n">
         <v>65086</v>
       </c>
-      <c r="N278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -12735,7 +12453,6 @@
       <c r="M279" t="n">
         <v>539231</v>
       </c>
-      <c r="N279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -12779,7 +12496,6 @@
       <c r="M280" t="n">
         <v>116414</v>
       </c>
-      <c r="N280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -12823,7 +12539,6 @@
       <c r="M281" t="n">
         <v>17720</v>
       </c>
-      <c r="N281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -12867,7 +12582,6 @@
       <c r="M282" t="n">
         <v>67068</v>
       </c>
-      <c r="N282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -12911,7 +12625,6 @@
       <c r="M283" t="n">
         <v>253435</v>
       </c>
-      <c r="N283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -12955,7 +12668,6 @@
       <c r="M284" t="n">
         <v>170939</v>
       </c>
-      <c r="N284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -12999,7 +12711,6 @@
       <c r="M285" t="n">
         <v>236291</v>
       </c>
-      <c r="N285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -13043,7 +12754,6 @@
       <c r="M286" t="n">
         <v>1558610</v>
       </c>
-      <c r="N286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -13087,7 +12797,6 @@
       <c r="M287" t="n">
         <v>1629200</v>
       </c>
-      <c r="N287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -13131,7 +12840,6 @@
       <c r="M288" t="n">
         <v>88432</v>
       </c>
-      <c r="N288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -13175,7 +12883,6 @@
       <c r="M289" t="n">
         <v>216272</v>
       </c>
-      <c r="N289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -13219,7 +12926,6 @@
       <c r="M290" t="n">
         <v>28202340</v>
       </c>
-      <c r="N290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -13263,7 +12969,6 @@
       <c r="M291" t="n">
         <v>702437</v>
       </c>
-      <c r="N291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -13307,7 +13012,6 @@
       <c r="M292" t="n">
         <v>194706</v>
       </c>
-      <c r="N292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -13351,7 +13055,6 @@
       <c r="M293" t="n">
         <v>66515</v>
       </c>
-      <c r="N293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -13395,7 +13098,6 @@
       <c r="M294" t="n">
         <v>2043114</v>
       </c>
-      <c r="N294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -13439,7 +13141,6 @@
       <c r="M295" t="n">
         <v>1297520</v>
       </c>
-      <c r="N295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -13483,7 +13184,6 @@
       <c r="M296" t="n">
         <v>48412</v>
       </c>
-      <c r="N296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -13527,7 +13227,6 @@
       <c r="M297" t="n">
         <v>1501739</v>
       </c>
-      <c r="N297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -13571,7 +13270,6 @@
       <c r="M298" t="n">
         <v>10373825</v>
       </c>
-      <c r="N298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -13615,7 +13313,6 @@
       <c r="M299" t="n">
         <v>61614</v>
       </c>
-      <c r="N299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -13659,7 +13356,6 @@
       <c r="M300" t="n">
         <v>82562</v>
       </c>
-      <c r="N300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -13703,7 +13399,6 @@
       <c r="M301" t="n">
         <v>921491</v>
       </c>
-      <c r="N301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -13747,7 +13442,6 @@
       <c r="M302" t="n">
         <v>82696</v>
       </c>
-      <c r="N302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -13791,7 +13485,6 @@
       <c r="M303" t="n">
         <v>2968833</v>
       </c>
-      <c r="N303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -13835,7 +13528,6 @@
       <c r="M304" t="n">
         <v>177958</v>
       </c>
-      <c r="N304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -13879,7 +13571,6 @@
       <c r="M305" t="n">
         <v>168378</v>
       </c>
-      <c r="N305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -13923,7 +13614,6 @@
       <c r="M306" t="n">
         <v>50823</v>
       </c>
-      <c r="N306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -13967,7 +13657,6 @@
       <c r="M307" t="n">
         <v>508911</v>
       </c>
-      <c r="N307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -14011,7 +13700,6 @@
       <c r="M308" t="n">
         <v>801668</v>
       </c>
-      <c r="N308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -14055,7 +13743,6 @@
       <c r="M309" t="n">
         <v>151123</v>
       </c>
-      <c r="N309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -14099,7 +13786,6 @@
       <c r="M310" t="n">
         <v>94421</v>
       </c>
-      <c r="N310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -14143,7 +13829,6 @@
       <c r="M311" t="n">
         <v>683859</v>
       </c>
-      <c r="N311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -14187,7 +13872,6 @@
       <c r="M312" t="n">
         <v>232264</v>
       </c>
-      <c r="N312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -14231,7 +13915,6 @@
       <c r="M313" t="n">
         <v>18746</v>
       </c>
-      <c r="N313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -14275,7 +13958,6 @@
       <c r="M314" t="n">
         <v>124491</v>
       </c>
-      <c r="N314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -14319,7 +14001,6 @@
       <c r="M315" t="n">
         <v>452168</v>
       </c>
-      <c r="N315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -14363,7 +14044,6 @@
       <c r="M316" t="n">
         <v>86221</v>
       </c>
-      <c r="N316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -14407,7 +14087,6 @@
       <c r="M317" t="n">
         <v>539945</v>
       </c>
-      <c r="N317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -14451,7 +14130,6 @@
       <c r="M318" t="n">
         <v>930237</v>
       </c>
-      <c r="N318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -14495,7 +14173,6 @@
       <c r="M319" t="n">
         <v>2214717</v>
       </c>
-      <c r="N319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -14539,7 +14216,6 @@
       <c r="M320" t="n">
         <v>260022</v>
       </c>
-      <c r="N320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -14583,7 +14259,6 @@
       <c r="M321" t="n">
         <v>360922</v>
       </c>
-      <c r="N321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -14627,7 +14302,6 @@
       <c r="M322" t="n">
         <v>36025184</v>
       </c>
-      <c r="N322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -14671,7 +14345,6 @@
       <c r="M323" t="n">
         <v>1262223</v>
       </c>
-      <c r="N323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -14715,7 +14388,6 @@
       <c r="M324" t="n">
         <v>278446</v>
       </c>
-      <c r="N324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -14759,7 +14431,6 @@
       <c r="M325" t="n">
         <v>86707</v>
       </c>
-      <c r="N325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -14803,7 +14474,6 @@
       <c r="M326" t="n">
         <v>3121865</v>
       </c>
-      <c r="N326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -14847,7 +14517,6 @@
       <c r="M327" t="n">
         <v>1019154</v>
       </c>
-      <c r="N327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -14891,7 +14560,6 @@
       <c r="M328" t="n">
         <v>89447</v>
       </c>
-      <c r="N328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -14935,7 +14603,6 @@
       <c r="M329" t="n">
         <v>2285498</v>
       </c>
-      <c r="N329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -14979,7 +14646,6 @@
       <c r="M330" t="n">
         <v>10387451</v>
       </c>
-      <c r="N330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -15023,7 +14689,6 @@
       <c r="M331" t="n">
         <v>107702</v>
       </c>
-      <c r="N331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -15067,7 +14732,6 @@
       <c r="M332" t="n">
         <v>108874</v>
       </c>
-      <c r="N332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -15111,7 +14775,6 @@
       <c r="M333" t="n">
         <v>866623</v>
       </c>
-      <c r="N333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -15155,7 +14818,6 @@
       <c r="M334" t="n">
         <v>113028</v>
       </c>
-      <c r="N334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -15199,7 +14861,6 @@
       <c r="M335" t="n">
         <v>3691584</v>
       </c>
-      <c r="N335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -15243,7 +14904,6 @@
       <c r="M336" t="n">
         <v>268568</v>
       </c>
-      <c r="N336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -15287,7 +14947,6 @@
       <c r="M337" t="n">
         <v>236591</v>
       </c>
-      <c r="N337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -15331,7 +14990,6 @@
       <c r="M338" t="n">
         <v>60938</v>
       </c>
-      <c r="N338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -15375,7 +15033,6 @@
       <c r="M339" t="n">
         <v>1378794</v>
       </c>
-      <c r="N339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -15419,7 +15076,6 @@
       <c r="M340" t="n">
         <v>1035725</v>
       </c>
-      <c r="N340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -15463,7 +15119,6 @@
       <c r="M341" t="n">
         <v>166045</v>
       </c>
-      <c r="N341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -15507,7 +15162,6 @@
       <c r="M342" t="n">
         <v>53243</v>
       </c>
-      <c r="N342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -15551,7 +15205,6 @@
       <c r="M343" t="n">
         <v>4693373</v>
       </c>
-      <c r="N343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -15595,7 +15248,6 @@
       <c r="M344" t="n">
         <v>214220</v>
       </c>
-      <c r="N344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -15639,7 +15291,6 @@
       <c r="M345" t="n">
         <v>14606</v>
       </c>
-      <c r="N345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -15683,7 +15334,6 @@
       <c r="M346" t="n">
         <v>147161</v>
       </c>
-      <c r="N346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -15727,7 +15377,6 @@
       <c r="M347" t="n">
         <v>427081</v>
       </c>
-      <c r="N347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -15771,7 +15420,6 @@
       <c r="M348" t="n">
         <v>156316</v>
       </c>
-      <c r="N348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -15815,7 +15463,6 @@
       <c r="M349" t="n">
         <v>412564</v>
       </c>
-      <c r="N349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -15859,7 +15506,6 @@
       <c r="M350" t="n">
         <v>1502090</v>
       </c>
-      <c r="N350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -15903,7 +15549,6 @@
       <c r="M351" t="n">
         <v>1243085</v>
       </c>
-      <c r="N351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -15947,7 +15592,6 @@
       <c r="M352" t="n">
         <v>154556</v>
       </c>
-      <c r="N352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -15991,7 +15635,6 @@
       <c r="M353" t="n">
         <v>441628</v>
       </c>
-      <c r="N353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -16035,7 +15678,6 @@
       <c r="M354" t="n">
         <v>37662686</v>
       </c>
-      <c r="N354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -16079,7 +15721,6 @@
       <c r="M355" t="n">
         <v>1465407</v>
       </c>
-      <c r="N355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -16123,7 +15764,6 @@
       <c r="M356" t="n">
         <v>255812</v>
       </c>
-      <c r="N356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -16167,7 +15807,6 @@
       <c r="M357" t="n">
         <v>76898</v>
       </c>
-      <c r="N357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -16211,7 +15850,6 @@
       <c r="M358" t="n">
         <v>3777265</v>
       </c>
-      <c r="N358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -16255,7 +15893,6 @@
       <c r="M359" t="n">
         <v>1747889</v>
       </c>
-      <c r="N359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -16299,7 +15936,6 @@
       <c r="M360" t="n">
         <v>114910</v>
       </c>
-      <c r="N360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -16343,7 +15979,6 @@
       <c r="M361" t="n">
         <v>4257531</v>
       </c>
-      <c r="N361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -16387,7 +16022,6 @@
       <c r="M362" t="n">
         <v>8985944</v>
       </c>
-      <c r="N362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -16431,7 +16065,6 @@
       <c r="M363" t="n">
         <v>136667</v>
       </c>
-      <c r="N363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -16475,7 +16108,6 @@
       <c r="M364" t="n">
         <v>123803</v>
       </c>
-      <c r="N364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -16519,7 +16151,6 @@
       <c r="M365" t="n">
         <v>1468028</v>
       </c>
-      <c r="N365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -16563,7 +16194,6 @@
       <c r="M366" t="n">
         <v>392076</v>
       </c>
-      <c r="N366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -16607,7 +16237,6 @@
       <c r="M367" t="n">
         <v>4140173</v>
       </c>
-      <c r="N367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -16651,7 +16280,6 @@
       <c r="M368" t="n">
         <v>293891</v>
       </c>
-      <c r="N368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -16695,7 +16323,6 @@
       <c r="M369" t="n">
         <v>268758</v>
       </c>
-      <c r="N369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -16739,7 +16366,6 @@
       <c r="M370" t="n">
         <v>102237</v>
       </c>
-      <c r="N370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -16783,7 +16409,6 @@
       <c r="M371" t="n">
         <v>967227</v>
       </c>
-      <c r="N371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -16827,7 +16452,6 @@
       <c r="M372" t="n">
         <v>1077175</v>
       </c>
-      <c r="N372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -16871,7 +16495,6 @@
       <c r="M373" t="n">
         <v>184015</v>
       </c>
-      <c r="N373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -16915,7 +16538,6 @@
       <c r="M374" t="n">
         <v>114843</v>
       </c>
-      <c r="N374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -16959,7 +16581,6 @@
       <c r="M375" t="n">
         <v>1076094</v>
       </c>
-      <c r="N375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -17003,7 +16624,6 @@
       <c r="M376" t="n">
         <v>271976</v>
       </c>
-      <c r="N376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -17047,7 +16667,6 @@
       <c r="M377" t="n">
         <v>16385</v>
       </c>
-      <c r="N377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -17091,7 +16710,6 @@
       <c r="M378" t="n">
         <v>207498</v>
       </c>
-      <c r="N378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -17135,7 +16753,6 @@
       <c r="M379" t="n">
         <v>675745</v>
       </c>
-      <c r="N379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -17179,7 +16796,6 @@
       <c r="M380" t="n">
         <v>117594</v>
       </c>
-      <c r="N380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -17223,7 +16839,6 @@
       <c r="M381" t="n">
         <v>680574</v>
       </c>
-      <c r="N381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -17267,7 +16882,6 @@
       <c r="M382" t="n">
         <v>2203175</v>
       </c>
-      <c r="N382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -17311,7 +16925,6 @@
       <c r="M383" t="n">
         <v>1424731</v>
       </c>
-      <c r="N383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -17355,7 +16968,6 @@
       <c r="M384" t="n">
         <v>357342</v>
       </c>
-      <c r="N384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -17399,7 +17011,6 @@
       <c r="M385" t="n">
         <v>681022</v>
       </c>
-      <c r="N385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -17443,7 +17054,6 @@
       <c r="M386" t="n">
         <v>54233154</v>
       </c>
-      <c r="N386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -17487,7 +17097,6 @@
       <c r="M387" t="n">
         <v>2066407</v>
       </c>
-      <c r="N387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -17531,7 +17140,6 @@
       <c r="M388" t="n">
         <v>309294</v>
       </c>
-      <c r="N388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -17575,7 +17183,6 @@
       <c r="M389" t="n">
         <v>190590</v>
       </c>
-      <c r="N389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -17619,7 +17226,6 @@
       <c r="M390" t="n">
         <v>6886428</v>
       </c>
-      <c r="N390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -17663,7 +17269,6 @@
       <c r="M391" t="n">
         <v>1771258</v>
       </c>
-      <c r="N391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -17707,7 +17312,6 @@
       <c r="M392" t="n">
         <v>161151</v>
       </c>
-      <c r="N392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -17751,7 +17355,6 @@
       <c r="M393" t="n">
         <v>5289884</v>
       </c>
-      <c r="N393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -17795,7 +17398,6 @@
       <c r="M394" t="n">
         <v>14731457</v>
       </c>
-      <c r="N394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -17839,7 +17441,6 @@
       <c r="M395" t="n">
         <v>193061</v>
       </c>
-      <c r="N395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -17883,7 +17484,6 @@
       <c r="M396" t="n">
         <v>156020</v>
       </c>
-      <c r="N396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -17927,7 +17527,6 @@
       <c r="M397" t="n">
         <v>1641058</v>
       </c>
-      <c r="N397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -17971,7 +17570,6 @@
       <c r="M398" t="n">
         <v>419860</v>
       </c>
-      <c r="N398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -18015,7 +17613,6 @@
       <c r="M399" t="n">
         <v>7331965</v>
       </c>
-      <c r="N399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -18059,7 +17656,6 @@
       <c r="M400" t="n">
         <v>413455</v>
       </c>
-      <c r="N400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -18103,7 +17699,6 @@
       <c r="M401" t="n">
         <v>239946</v>
       </c>
-      <c r="N401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -18147,7 +17742,6 @@
       <c r="M402" t="n">
         <v>97408</v>
       </c>
-      <c r="N402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -18191,7 +17785,6 @@
       <c r="M403" t="n">
         <v>1419392</v>
       </c>
-      <c r="N403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -18235,7 +17828,6 @@
       <c r="M404" t="n">
         <v>1280047</v>
       </c>
-      <c r="N404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -18279,7 +17871,6 @@
       <c r="M405" t="n">
         <v>430710</v>
       </c>
-      <c r="N405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -18323,7 +17914,6 @@
       <c r="M406" t="n">
         <v>117070</v>
       </c>
-      <c r="N406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -18367,7 +17957,6 @@
       <c r="M407" t="n">
         <v>1198900</v>
       </c>
-      <c r="N407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -18411,7 +18000,6 @@
       <c r="M408" t="n">
         <v>352263</v>
       </c>
-      <c r="N408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -18455,7 +18043,6 @@
       <c r="M409" t="n">
         <v>63190</v>
       </c>
-      <c r="N409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -18499,7 +18086,6 @@
       <c r="M410" t="n">
         <v>198651</v>
       </c>
-      <c r="N410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -18543,7 +18129,6 @@
       <c r="M411" t="n">
         <v>736749</v>
       </c>
-      <c r="N411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -18587,7 +18172,6 @@
       <c r="M412" t="n">
         <v>108363</v>
       </c>
-      <c r="N412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -18631,7 +18215,6 @@
       <c r="M413" t="n">
         <v>779449</v>
       </c>
-      <c r="N413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -18675,7 +18258,6 @@
       <c r="M414" t="n">
         <v>3357279</v>
       </c>
-      <c r="N414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -18719,7 +18301,6 @@
       <c r="M415" t="n">
         <v>1070903</v>
       </c>
-      <c r="N415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -18763,7 +18344,6 @@
       <c r="M416" t="n">
         <v>332274</v>
       </c>
-      <c r="N416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -18807,7 +18387,6 @@
       <c r="M417" t="n">
         <v>888672</v>
       </c>
-      <c r="N417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -18851,7 +18430,6 @@
       <c r="M418" t="n">
         <v>49858567</v>
       </c>
-      <c r="N418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -18895,7 +18473,6 @@
       <c r="M419" t="n">
         <v>2255635</v>
       </c>
-      <c r="N419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -18939,7 +18516,6 @@
       <c r="M420" t="n">
         <v>452320</v>
       </c>
-      <c r="N420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -18983,7 +18559,6 @@
       <c r="M421" t="n">
         <v>158284</v>
       </c>
-      <c r="N421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -19027,7 +18602,6 @@
       <c r="M422" t="n">
         <v>6260539</v>
       </c>
-      <c r="N422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -19071,7 +18645,6 @@
       <c r="M423" t="n">
         <v>1742817</v>
       </c>
-      <c r="N423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -19115,7 +18688,6 @@
       <c r="M424" t="n">
         <v>78077</v>
       </c>
-      <c r="N424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -19159,7 +18731,6 @@
       <c r="M425" t="n">
         <v>6689597</v>
       </c>
-      <c r="N425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -19203,7 +18774,6 @@
       <c r="M426" t="n">
         <v>11209433</v>
       </c>
-      <c r="N426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -19247,7 +18817,6 @@
       <c r="M427" t="n">
         <v>283271</v>
       </c>
-      <c r="N427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -19291,7 +18860,6 @@
       <c r="M428" t="n">
         <v>149383</v>
       </c>
-      <c r="N428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -19335,7 +18903,6 @@
       <c r="M429" t="n">
         <v>1326963</v>
       </c>
-      <c r="N429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -19379,7 +18946,6 @@
       <c r="M430" t="n">
         <v>497559</v>
       </c>
-      <c r="N430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -19423,7 +18989,6 @@
       <c r="M431" t="n">
         <v>7340311</v>
       </c>
-      <c r="N431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -19467,7 +19032,6 @@
       <c r="M432" t="n">
         <v>520647</v>
       </c>
-      <c r="N432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -19511,7 +19075,6 @@
       <c r="M433" t="n">
         <v>254485</v>
       </c>
-      <c r="N433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -19555,7 +19118,6 @@
       <c r="M434" t="n">
         <v>125018</v>
       </c>
-      <c r="N434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -19599,7 +19161,6 @@
       <c r="M435" t="n">
         <v>1042303</v>
       </c>
-      <c r="N435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -19643,7 +19204,6 @@
       <c r="M436" t="n">
         <v>1304824</v>
       </c>
-      <c r="N436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -19687,7 +19247,6 @@
       <c r="M437" t="n">
         <v>353100</v>
       </c>
-      <c r="N437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -19731,7 +19290,6 @@
       <c r="M438" t="n">
         <v>143569</v>
       </c>
-      <c r="N438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -19775,7 +19333,6 @@
       <c r="M439" t="n">
         <v>1033213</v>
       </c>
-      <c r="N439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -19819,7 +19376,6 @@
       <c r="M440" t="n">
         <v>464047</v>
       </c>
-      <c r="N440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -19863,7 +19419,6 @@
       <c r="M441" t="n">
         <v>72003</v>
       </c>
-      <c r="N441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -19907,7 +19462,6 @@
       <c r="M442" t="n">
         <v>237144</v>
       </c>
-      <c r="N442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -19951,7 +19505,6 @@
       <c r="M443" t="n">
         <v>696889</v>
       </c>
-      <c r="N443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -19995,7 +19548,6 @@
       <c r="M444" t="n">
         <v>144841</v>
       </c>
-      <c r="N444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -20039,7 +19591,6 @@
       <c r="M445" t="n">
         <v>931116</v>
       </c>
-      <c r="N445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -20083,7 +19634,6 @@
       <c r="M446" t="n">
         <v>1722845</v>
       </c>
-      <c r="N446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -20127,7 +19677,6 @@
       <c r="M447" t="n">
         <v>1254074</v>
       </c>
-      <c r="N447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -20171,7 +19720,6 @@
       <c r="M448" t="n">
         <v>292212</v>
       </c>
-      <c r="N448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -20215,7 +19763,6 @@
       <c r="M449" t="n">
         <v>822048</v>
       </c>
-      <c r="N449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -20259,7 +19806,6 @@
       <c r="M450" t="n">
         <v>56982146</v>
       </c>
-      <c r="N450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -20303,7 +19849,6 @@
       <c r="M451" t="n">
         <v>1800967</v>
       </c>
-      <c r="N451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -20347,7 +19892,6 @@
       <c r="M452" t="n">
         <v>646368</v>
       </c>
-      <c r="N452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -20391,7 +19935,6 @@
       <c r="M453" t="n">
         <v>117124</v>
       </c>
-      <c r="N453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -20435,7 +19978,6 @@
       <c r="M454" t="n">
         <v>5248390</v>
       </c>
-      <c r="N454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -20479,7 +20021,6 @@
       <c r="M455" t="n">
         <v>1882062</v>
       </c>
-      <c r="N455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -20523,7 +20064,6 @@
       <c r="M456" t="n">
         <v>137271</v>
       </c>
-      <c r="N456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -20567,7 +20107,6 @@
       <c r="M457" t="n">
         <v>8924131</v>
       </c>
-      <c r="N457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -20611,7 +20150,6 @@
       <c r="M458" t="n">
         <v>15043771</v>
       </c>
-      <c r="N458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -20655,7 +20193,6 @@
       <c r="M459" t="n">
         <v>229547</v>
       </c>
-      <c r="N459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -20699,7 +20236,6 @@
       <c r="M460" t="n">
         <v>173352</v>
       </c>
-      <c r="N460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -20743,7 +20279,6 @@
       <c r="M461" t="n">
         <v>1272785</v>
       </c>
-      <c r="N461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -20787,7 +20322,6 @@
       <c r="M462" t="n">
         <v>526905</v>
       </c>
-      <c r="N462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -20831,7 +20365,6 @@
       <c r="M463" t="n">
         <v>7683353</v>
       </c>
-      <c r="N463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -20875,7 +20408,6 @@
       <c r="M464" t="n">
         <v>801815</v>
       </c>
-      <c r="N464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -20919,7 +20451,6 @@
       <c r="M465" t="n">
         <v>435459</v>
       </c>
-      <c r="N465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -20963,7 +20494,6 @@
       <c r="M466" t="n">
         <v>210072</v>
       </c>
-      <c r="N466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -21007,7 +20537,6 @@
       <c r="M467" t="n">
         <v>1315566</v>
       </c>
-      <c r="N467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -21051,7 +20580,6 @@
       <c r="M468" t="n">
         <v>1367031</v>
       </c>
-      <c r="N468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -21095,7 +20623,6 @@
       <c r="M469" t="n">
         <v>429587</v>
       </c>
-      <c r="N469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -21139,7 +20666,6 @@
       <c r="M470" t="n">
         <v>116150</v>
       </c>
-      <c r="N470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -21183,7 +20709,6 @@
       <c r="M471" t="n">
         <v>1001062</v>
       </c>
-      <c r="N471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -21227,7 +20752,6 @@
       <c r="M472" t="n">
         <v>622487</v>
       </c>
-      <c r="N472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -21271,7 +20795,6 @@
       <c r="M473" t="n">
         <v>67029</v>
       </c>
-      <c r="N473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -21315,7 +20838,6 @@
       <c r="M474" t="n">
         <v>214877</v>
       </c>
-      <c r="N474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -21359,7 +20881,6 @@
       <c r="M475" t="n">
         <v>734654</v>
       </c>
-      <c r="N475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -21403,7 +20924,6 @@
       <c r="M476" t="n">
         <v>99615</v>
       </c>
-      <c r="N476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -21447,7 +20967,6 @@
       <c r="M477" t="n">
         <v>962067</v>
       </c>
-      <c r="N477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -21491,7 +21010,6 @@
       <c r="M478" t="n">
         <v>2400640</v>
       </c>
-      <c r="N478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -21535,7 +21053,6 @@
       <c r="M479" t="n">
         <v>1532379</v>
       </c>
-      <c r="N479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -21579,7 +21096,6 @@
       <c r="M480" t="n">
         <v>304618</v>
       </c>
-      <c r="N480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -21623,7 +21139,6 @@
       <c r="M481" t="n">
         <v>681010</v>
       </c>
-      <c r="N481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -21667,7 +21182,6 @@
       <c r="M482" t="n">
         <v>80105091</v>
       </c>
-      <c r="N482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -21711,7 +21225,6 @@
       <c r="M483" t="n">
         <v>2132220</v>
       </c>
-      <c r="N483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -21755,7 +21268,6 @@
       <c r="M484" t="n">
         <v>744194</v>
       </c>
-      <c r="N484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -21799,7 +21311,6 @@
       <c r="M485" t="n">
         <v>246352</v>
       </c>
-      <c r="N485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -21843,7 +21354,6 @@
       <c r="M486" t="n">
         <v>5995898</v>
       </c>
-      <c r="N486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -21887,7 +21397,6 @@
       <c r="M487" t="n">
         <v>6850062</v>
       </c>
-      <c r="N487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -21931,7 +21440,6 @@
       <c r="M488" t="n">
         <v>353543</v>
       </c>
-      <c r="N488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -21975,7 +21483,6 @@
       <c r="M489" t="n">
         <v>14605541</v>
       </c>
-      <c r="N489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -22019,7 +21526,6 @@
       <c r="M490" t="n">
         <v>17944031</v>
       </c>
-      <c r="N490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -22063,7 +21569,6 @@
       <c r="M491" t="n">
         <v>211303</v>
       </c>
-      <c r="N491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -22107,7 +21612,6 @@
       <c r="M492" t="n">
         <v>265105</v>
       </c>
-      <c r="N492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -22151,7 +21655,6 @@
       <c r="M493" t="n">
         <v>1700869</v>
       </c>
-      <c r="N493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -22195,7 +21698,6 @@
       <c r="M494" t="n">
         <v>613799</v>
       </c>
-      <c r="N494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -22239,7 +21741,6 @@
       <c r="M495" t="n">
         <v>11803359</v>
       </c>
-      <c r="N495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -22283,7 +21784,6 @@
       <c r="M496" t="n">
         <v>1359562</v>
       </c>
-      <c r="N496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -22327,7 +21827,6 @@
       <c r="M497" t="n">
         <v>308357</v>
       </c>
-      <c r="N497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -22371,7 +21870,6 @@
       <c r="M498" t="n">
         <v>163082</v>
       </c>
-      <c r="N498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -22415,7 +21913,6 @@
       <c r="M499" t="n">
         <v>1387285</v>
       </c>
-      <c r="N499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -22459,7 +21956,6 @@
       <c r="M500" t="n">
         <v>1281943</v>
       </c>
-      <c r="N500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -22503,7 +21999,6 @@
       <c r="M501" t="n">
         <v>600486</v>
       </c>
-      <c r="N501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -22547,7 +22042,6 @@
       <c r="M502" t="n">
         <v>115007</v>
       </c>
-      <c r="N502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -22591,7 +22085,6 @@
       <c r="M503" t="n">
         <v>1292781</v>
       </c>
-      <c r="N503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -22635,7 +22128,6 @@
       <c r="M504" t="n">
         <v>632362</v>
       </c>
-      <c r="N504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -22679,7 +22171,6 @@
       <c r="M505" t="n">
         <v>69978</v>
       </c>
-      <c r="N505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -22723,7 +22214,6 @@
       <c r="M506" t="n">
         <v>220934</v>
       </c>
-      <c r="N506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -22767,7 +22257,6 @@
       <c r="M507" t="n">
         <v>966118</v>
       </c>
-      <c r="N507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -22811,7 +22300,6 @@
       <c r="M508" t="n">
         <v>135521</v>
       </c>
-      <c r="N508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -22855,7 +22343,6 @@
       <c r="M509" t="n">
         <v>2181750</v>
       </c>
-      <c r="N509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -22899,7 +22386,6 @@
       <c r="M510" t="n">
         <v>2281424</v>
       </c>
-      <c r="N510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -22943,7 +22429,6 @@
       <c r="M511" t="n">
         <v>1454641</v>
       </c>
-      <c r="N511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -22987,7 +22472,6 @@
       <c r="M512" t="n">
         <v>436270</v>
       </c>
-      <c r="N512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -23031,7 +22515,6 @@
       <c r="M513" t="n">
         <v>1751315</v>
       </c>
-      <c r="N513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -23075,7 +22558,6 @@
       <c r="M514" t="n">
         <v>101301478</v>
       </c>
-      <c r="N514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -23119,7 +22601,6 @@
       <c r="M515" t="n">
         <v>3046954</v>
       </c>
-      <c r="N515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -23163,7 +22644,6 @@
       <c r="M516" t="n">
         <v>738106</v>
       </c>
-      <c r="N516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -23207,7 +22687,6 @@
       <c r="M517" t="n">
         <v>328000</v>
       </c>
-      <c r="N517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -23251,7 +22730,6 @@
       <c r="M518" t="n">
         <v>9188961</v>
       </c>
-      <c r="N518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -23295,7 +22773,6 @@
       <c r="M519" t="n">
         <v>8812231</v>
       </c>
-      <c r="N519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -23339,7 +22816,6 @@
       <c r="M520" t="n">
         <v>70982</v>
       </c>
-      <c r="N520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -23383,7 +22859,6 @@
       <c r="M521" t="n">
         <v>17757338</v>
       </c>
-      <c r="N521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -23427,7 +22902,6 @@
       <c r="M522" t="n">
         <v>20748136</v>
       </c>
-      <c r="N522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -23471,7 +22945,6 @@
       <c r="M523" t="n">
         <v>227588</v>
       </c>
-      <c r="N523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -23515,7 +22988,6 @@
       <c r="M524" t="n">
         <v>411140</v>
       </c>
-      <c r="N524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -23559,7 +23031,6 @@
       <c r="M525" t="n">
         <v>2391201</v>
       </c>
-      <c r="N525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -23603,7 +23074,6 @@
       <c r="M526" t="n">
         <v>728390</v>
       </c>
-      <c r="N526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -23647,7 +23117,6 @@
       <c r="M527" t="n">
         <v>13353671</v>
       </c>
-      <c r="N527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -23691,7 +23160,6 @@
       <c r="M528" t="n">
         <v>2103245</v>
       </c>
-      <c r="N528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -23735,7 +23203,6 @@
       <c r="M529" t="n">
         <v>475193</v>
       </c>
-      <c r="N529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -23779,7 +23246,6 @@
       <c r="M530" t="n">
         <v>170982</v>
       </c>
-      <c r="N530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -23823,7 +23289,6 @@
       <c r="M531" t="n">
         <v>1598288</v>
       </c>
-      <c r="N531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -23867,7 +23332,6 @@
       <c r="M532" t="n">
         <v>2090317</v>
       </c>
-      <c r="N532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -23911,7 +23375,6 @@
       <c r="M533" t="n">
         <v>842795</v>
       </c>
-      <c r="N533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -23955,7 +23418,6 @@
       <c r="M534" t="n">
         <v>144209</v>
       </c>
-      <c r="N534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -23999,7 +23461,6 @@
       <c r="M535" t="n">
         <v>2489922</v>
       </c>
-      <c r="N535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -24043,7 +23504,6 @@
       <c r="M536" t="n">
         <v>504164</v>
       </c>
-      <c r="N536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -24087,7 +23547,6 @@
       <c r="M537" t="n">
         <v>98349</v>
       </c>
-      <c r="N537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -24131,7 +23590,6 @@
       <c r="M538" t="n">
         <v>375637</v>
       </c>
-      <c r="N538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -24175,7 +23633,6 @@
       <c r="M539" t="n">
         <v>1038982</v>
       </c>
-      <c r="N539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -24219,7 +23676,6 @@
       <c r="M540" t="n">
         <v>208631</v>
       </c>
-      <c r="N540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -24263,7 +23719,6 @@
       <c r="M541" t="n">
         <v>2532615</v>
       </c>
-      <c r="N541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -24307,7 +23762,6 @@
       <c r="M542" t="n">
         <v>3700677</v>
       </c>
-      <c r="N542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -24351,7 +23805,6 @@
       <c r="M543" t="n">
         <v>1842928</v>
       </c>
-      <c r="N543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -24395,7 +23848,6 @@
       <c r="M544" t="n">
         <v>611603</v>
       </c>
-      <c r="N544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -24439,7 +23891,6 @@
       <c r="M545" t="n">
         <v>2670243</v>
       </c>
-      <c r="N545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -24483,7 +23934,6 @@
       <c r="M546" t="n">
         <v>130159736</v>
       </c>
-      <c r="N546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -24527,7 +23977,6 @@
       <c r="M547" t="n">
         <v>2605770</v>
       </c>
-      <c r="N547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -24571,7 +24020,6 @@
       <c r="M548" t="n">
         <v>1604085</v>
       </c>
-      <c r="N548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -24615,7 +24063,6 @@
       <c r="M549" t="n">
         <v>422166</v>
       </c>
-      <c r="N549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -24659,7 +24106,6 @@
       <c r="M550" t="n">
         <v>14276694</v>
       </c>
-      <c r="N550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -24703,7 +24149,6 @@
       <c r="M551" t="n">
         <v>13050176</v>
       </c>
-      <c r="N551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -24747,7 +24192,6 @@
       <c r="M552" t="n">
         <v>267768</v>
       </c>
-      <c r="N552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -24791,7 +24235,6 @@
       <c r="M553" t="n">
         <v>20297925</v>
       </c>
-      <c r="N553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -24835,7 +24278,6 @@
       <c r="M554" t="n">
         <v>19144012</v>
       </c>
-      <c r="N554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -24879,7 +24321,6 @@
       <c r="M555" t="n">
         <v>359507</v>
       </c>
-      <c r="N555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -24923,7 +24364,6 @@
       <c r="M556" t="n">
         <v>184778</v>
       </c>
-      <c r="N556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -24967,7 +24407,6 @@
       <c r="M557" t="n">
         <v>4189517</v>
       </c>
-      <c r="N557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -25011,7 +24450,6 @@
       <c r="M558" t="n">
         <v>3671564</v>
       </c>
-      <c r="N558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -25055,7 +24493,6 @@
       <c r="M559" t="n">
         <v>15517075</v>
       </c>
-      <c r="N559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -25099,7 +24536,6 @@
       <c r="M560" t="n">
         <v>2135657</v>
       </c>
-      <c r="N560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -25143,7 +24579,6 @@
       <c r="M561" t="n">
         <v>1250726</v>
       </c>
-      <c r="N561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -25187,7 +24622,6 @@
       <c r="M562" t="n">
         <v>247629</v>
       </c>
-      <c r="N562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -25231,7 +24665,6 @@
       <c r="M563" t="n">
         <v>2528903</v>
       </c>
-      <c r="N563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -25275,7 +24708,6 @@
       <c r="M564" t="n">
         <v>2952564</v>
       </c>
-      <c r="N564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -25319,7 +24751,6 @@
       <c r="M565" t="n">
         <v>1288724</v>
       </c>
-      <c r="N565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -25363,7 +24794,6 @@
       <c r="M566" t="n">
         <v>271693</v>
       </c>
-      <c r="N566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -25407,7 +24837,6 @@
       <c r="M567" t="n">
         <v>4408396</v>
       </c>
-      <c r="N567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -25451,7 +24880,6 @@
       <c r="M568" t="n">
         <v>758157</v>
       </c>
-      <c r="N568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -25495,7 +24923,6 @@
       <c r="M569" t="n">
         <v>169386</v>
       </c>
-      <c r="N569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -25539,7 +24966,6 @@
       <c r="M570" t="n">
         <v>511758</v>
       </c>
-      <c r="N570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -25583,7 +25009,6 @@
       <c r="M571" t="n">
         <v>1277077</v>
       </c>
-      <c r="N571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -25627,7 +25052,6 @@
       <c r="M572" t="n">
         <v>272935</v>
       </c>
-      <c r="N572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -25671,7 +25095,6 @@
       <c r="M573" t="n">
         <v>3516242</v>
       </c>
-      <c r="N573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -25715,7 +25138,6 @@
       <c r="M574" t="n">
         <v>6386791</v>
       </c>
-      <c r="N574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -25759,7 +25181,6 @@
       <c r="M575" t="n">
         <v>1736438</v>
       </c>
-      <c r="N575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -25803,7 +25224,6 @@
       <c r="M576" t="n">
         <v>978236</v>
       </c>
-      <c r="N576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -25847,7 +25267,6 @@
       <c r="M577" t="n">
         <v>3877386</v>
       </c>
-      <c r="N577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -25891,7 +25310,6 @@
       <c r="M578" t="n">
         <v>185974230</v>
       </c>
-      <c r="N578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -25935,7 +25353,6 @@
       <c r="M579" t="n">
         <v>5525788</v>
       </c>
-      <c r="N579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -25979,7 +25396,6 @@
       <c r="M580" t="n">
         <v>1842619</v>
       </c>
-      <c r="N580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -26023,7 +25439,6 @@
       <c r="M581" t="n">
         <v>722394</v>
       </c>
-      <c r="N581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -26067,7 +25482,6 @@
       <c r="M582" t="n">
         <v>17948454</v>
       </c>
-      <c r="N582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -26111,7 +25525,6 @@
       <c r="M583" t="n">
         <v>6500084</v>
       </c>
-      <c r="N583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -26155,7 +25568,6 @@
       <c r="M584" t="n">
         <v>871698</v>
       </c>
-      <c r="N584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -26199,7 +25611,6 @@
       <c r="M585" t="n">
         <v>32937810</v>
       </c>
-      <c r="N585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -26243,7 +25654,6 @@
       <c r="M586" t="n">
         <v>26942988</v>
       </c>
-      <c r="N586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -26287,7 +25697,6 @@
       <c r="M587" t="n">
         <v>687802</v>
       </c>
-      <c r="N587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -26331,7 +25740,6 @@
       <c r="M588" t="n">
         <v>448519</v>
       </c>
-      <c r="N588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -26375,7 +25783,6 @@
       <c r="M589" t="n">
         <v>6583430</v>
       </c>
-      <c r="N589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -26419,7 +25826,6 @@
       <c r="M590" t="n">
         <v>5092904</v>
       </c>
-      <c r="N590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -26463,7 +25869,6 @@
       <c r="M591" t="n">
         <v>27367165</v>
       </c>
-      <c r="N591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -26507,7 +25912,6 @@
       <c r="M592" t="n">
         <v>3326025</v>
       </c>
-      <c r="N592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -26551,7 +25955,6 @@
       <c r="M593" t="n">
         <v>1854735</v>
       </c>
-      <c r="N593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -26595,7 +25998,6 @@
       <c r="M594" t="n">
         <v>366884</v>
       </c>
-      <c r="N594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -26639,7 +26041,6 @@
       <c r="M595" t="n">
         <v>4581419</v>
       </c>
-      <c r="N595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -26683,7 +26084,6 @@
       <c r="M596" t="n">
         <v>5475306</v>
       </c>
-      <c r="N596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -26727,7 +26127,6 @@
       <c r="M597" t="n">
         <v>1392311</v>
       </c>
-      <c r="N597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -26771,7 +26170,6 @@
       <c r="M598" t="n">
         <v>514981</v>
       </c>
-      <c r="N598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -26815,7 +26213,6 @@
       <c r="M599" t="n">
         <v>6677219</v>
       </c>
-      <c r="N599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -26859,7 +26256,6 @@
       <c r="M600" t="n">
         <v>1263073</v>
       </c>
-      <c r="N600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -26903,7 +26299,6 @@
       <c r="M601" t="n">
         <v>287439</v>
       </c>
-      <c r="N601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -26947,7 +26342,6 @@
       <c r="M602" t="n">
         <v>1106727</v>
       </c>
-      <c r="N602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -26991,7 +26385,6 @@
       <c r="M603" t="n">
         <v>2561971</v>
       </c>
-      <c r="N603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -27035,7 +26428,6 @@
       <c r="M604" t="n">
         <v>765998</v>
       </c>
-      <c r="N604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -27079,7 +26471,6 @@
       <c r="M605" t="n">
         <v>4688090</v>
       </c>
-      <c r="N605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -27123,7 +26514,6 @@
       <c r="M606" t="n">
         <v>7592597</v>
       </c>
-      <c r="N606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -27167,7 +26557,6 @@
       <c r="M607" t="n">
         <v>5717290</v>
       </c>
-      <c r="N607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -27211,7 +26600,6 @@
       <c r="M608" t="n">
         <v>1090605</v>
       </c>
-      <c r="N608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -27255,7 +26643,6 @@
       <c r="M609" t="n">
         <v>3239906</v>
       </c>
-      <c r="N609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -27281,7 +26668,9 @@
       <c r="G610" t="n">
         <v>183306069</v>
       </c>
-      <c r="H610" t="inlineStr"/>
+      <c r="H610" t="n">
+        <v>34418762</v>
+      </c>
       <c r="I610" t="n">
         <v>65877344</v>
       </c>
@@ -27296,9 +26685,6 @@
       </c>
       <c r="M610" t="n">
         <v>305974306</v>
-      </c>
-      <c r="N610" t="n">
-        <v>34418762</v>
       </c>
     </row>
     <row r="611">
@@ -27325,7 +26711,9 @@
       <c r="G611" t="n">
         <v>9073425</v>
       </c>
-      <c r="H611" t="inlineStr"/>
+      <c r="H611" t="n">
+        <v>2600305</v>
+      </c>
       <c r="I611" t="n">
         <v>2508398</v>
       </c>
@@ -27340,9 +26728,6 @@
       </c>
       <c r="M611" t="n">
         <v>8638416</v>
-      </c>
-      <c r="N611" t="n">
-        <v>2600305</v>
       </c>
     </row>
     <row r="612">
@@ -27369,7 +26754,9 @@
       <c r="G612" t="n">
         <v>2406846</v>
       </c>
-      <c r="H612" t="inlineStr"/>
+      <c r="H612" t="n">
+        <v>617903</v>
+      </c>
       <c r="I612" t="n">
         <v>1644958</v>
       </c>
@@ -27384,9 +26771,6 @@
       </c>
       <c r="M612" t="n">
         <v>3168061</v>
-      </c>
-      <c r="N612" t="n">
-        <v>617903</v>
       </c>
     </row>
     <row r="613">
@@ -27413,7 +26797,9 @@
       <c r="G613" t="n">
         <v>830903</v>
       </c>
-      <c r="H613" t="inlineStr"/>
+      <c r="H613" t="n">
+        <v>82881</v>
+      </c>
       <c r="I613" t="n">
         <v>355062</v>
       </c>
@@ -27428,9 +26814,6 @@
       </c>
       <c r="M613" t="n">
         <v>1005269</v>
-      </c>
-      <c r="N613" t="n">
-        <v>82881</v>
       </c>
     </row>
     <row r="614">
@@ -27457,7 +26840,9 @@
       <c r="G614" t="n">
         <v>16361944</v>
       </c>
-      <c r="H614" t="inlineStr"/>
+      <c r="H614" t="n">
+        <v>2049676</v>
+      </c>
       <c r="I614" t="n">
         <v>6592673</v>
       </c>
@@ -27472,9 +26857,6 @@
       </c>
       <c r="M614" t="n">
         <v>18839544</v>
-      </c>
-      <c r="N614" t="n">
-        <v>2049676</v>
       </c>
     </row>
     <row r="615">
@@ -27501,7 +26883,9 @@
       <c r="G615" t="n">
         <v>7659743</v>
       </c>
-      <c r="H615" t="inlineStr"/>
+      <c r="H615" t="n">
+        <v>424023</v>
+      </c>
       <c r="I615" t="n">
         <v>572412</v>
       </c>
@@ -27516,9 +26900,6 @@
       </c>
       <c r="M615" t="n">
         <v>8485761</v>
-      </c>
-      <c r="N615" t="n">
-        <v>424023</v>
       </c>
     </row>
     <row r="616">
@@ -27545,7 +26926,9 @@
       <c r="G616" t="n">
         <v>121878</v>
       </c>
-      <c r="H616" t="inlineStr"/>
+      <c r="H616" t="n">
+        <v>39956</v>
+      </c>
       <c r="I616" t="n">
         <v>26487</v>
       </c>
@@ -27560,9 +26943,6 @@
       </c>
       <c r="M616" t="n">
         <v>22344</v>
-      </c>
-      <c r="N616" t="n">
-        <v>39956</v>
       </c>
     </row>
     <row r="617">
@@ -27589,7 +26969,9 @@
       <c r="G617" t="n">
         <v>1584028</v>
       </c>
-      <c r="H617" t="inlineStr"/>
+      <c r="H617" t="n">
+        <v>529812</v>
+      </c>
       <c r="I617" t="n">
         <v>375347</v>
       </c>
@@ -27604,9 +26986,6 @@
       </c>
       <c r="M617" t="n">
         <v>69929621</v>
-      </c>
-      <c r="N617" t="n">
-        <v>529812</v>
       </c>
     </row>
     <row r="618">
@@ -27633,7 +27012,9 @@
       <c r="G618" t="n">
         <v>27736543</v>
       </c>
-      <c r="H618" t="inlineStr"/>
+      <c r="H618" t="n">
+        <v>11807501</v>
+      </c>
       <c r="I618" t="n">
         <v>2111175</v>
       </c>
@@ -27648,9 +27029,6 @@
       </c>
       <c r="M618" t="n">
         <v>52606201</v>
-      </c>
-      <c r="N618" t="n">
-        <v>11807501</v>
       </c>
     </row>
     <row r="619">
@@ -27677,7 +27055,9 @@
       <c r="G619" t="n">
         <v>718926</v>
       </c>
-      <c r="H619" t="inlineStr"/>
+      <c r="H619" t="n">
+        <v>268840</v>
+      </c>
       <c r="I619" t="n">
         <v>256742</v>
       </c>
@@ -27692,9 +27072,6 @@
       </c>
       <c r="M619" t="n">
         <v>1553481</v>
-      </c>
-      <c r="N619" t="n">
-        <v>268840</v>
       </c>
     </row>
     <row r="620">
@@ -27721,7 +27098,9 @@
       <c r="G620" t="n">
         <v>260889</v>
       </c>
-      <c r="H620" t="inlineStr"/>
+      <c r="H620" t="n">
+        <v>206352</v>
+      </c>
       <c r="I620" t="n">
         <v>359047</v>
       </c>
@@ -27736,9 +27115,6 @@
       </c>
       <c r="M620" t="n">
         <v>284138</v>
-      </c>
-      <c r="N620" t="n">
-        <v>206352</v>
       </c>
     </row>
     <row r="621">
@@ -27765,7 +27141,9 @@
       <c r="G621" t="n">
         <v>9094016</v>
       </c>
-      <c r="H621" t="inlineStr"/>
+      <c r="H621" t="n">
+        <v>822177</v>
+      </c>
       <c r="I621" t="n">
         <v>8803664</v>
       </c>
@@ -27780,9 +27158,6 @@
       </c>
       <c r="M621" t="n">
         <v>11089860</v>
-      </c>
-      <c r="N621" t="n">
-        <v>822177</v>
       </c>
     </row>
     <row r="622">
@@ -27809,7 +27184,9 @@
       <c r="G622" t="n">
         <v>510821</v>
       </c>
-      <c r="H622" t="inlineStr"/>
+      <c r="H622" t="n">
+        <v>732673</v>
+      </c>
       <c r="I622" t="n">
         <v>3948890</v>
       </c>
@@ -27824,9 +27201,6 @@
       </c>
       <c r="M622" t="n">
         <v>4141872</v>
-      </c>
-      <c r="N622" t="n">
-        <v>732673</v>
       </c>
     </row>
     <row r="623">
@@ -27853,7 +27227,9 @@
       <c r="G623" t="n">
         <v>15595731</v>
       </c>
-      <c r="H623" t="inlineStr"/>
+      <c r="H623" t="n">
+        <v>2172870</v>
+      </c>
       <c r="I623" t="n">
         <v>6545569</v>
       </c>
@@ -27868,9 +27244,6 @@
       </c>
       <c r="M623" t="n">
         <v>41947119</v>
-      </c>
-      <c r="N623" t="n">
-        <v>2172870</v>
       </c>
     </row>
     <row r="624">
@@ -27897,7 +27270,9 @@
       <c r="G624" t="n">
         <v>5129397</v>
       </c>
-      <c r="H624" t="inlineStr"/>
+      <c r="H624" t="n">
+        <v>1037302</v>
+      </c>
       <c r="I624" t="n">
         <v>3367360</v>
       </c>
@@ -27912,9 +27287,6 @@
       </c>
       <c r="M624" t="n">
         <v>3415656</v>
-      </c>
-      <c r="N624" t="n">
-        <v>1037302</v>
       </c>
     </row>
     <row r="625">
@@ -27941,7 +27313,9 @@
       <c r="G625" t="n">
         <v>5918114</v>
       </c>
-      <c r="H625" t="inlineStr"/>
+      <c r="H625" t="n">
+        <v>375331</v>
+      </c>
       <c r="I625" t="n">
         <v>7278892</v>
       </c>
@@ -27956,9 +27330,6 @@
       </c>
       <c r="M625" t="n">
         <v>3270701</v>
-      </c>
-      <c r="N625" t="n">
-        <v>375331</v>
       </c>
     </row>
     <row r="626">
@@ -27985,7 +27356,9 @@
       <c r="G626" t="n">
         <v>317498</v>
       </c>
-      <c r="H626" t="inlineStr"/>
+      <c r="H626" t="n">
+        <v>304642</v>
+      </c>
       <c r="I626" t="n">
         <v>311241</v>
       </c>
@@ -28000,9 +27373,6 @@
       </c>
       <c r="M626" t="n">
         <v>725854</v>
-      </c>
-      <c r="N626" t="n">
-        <v>304642</v>
       </c>
     </row>
     <row r="627">
@@ -28029,7 +27399,9 @@
       <c r="G627" t="n">
         <v>5447848</v>
       </c>
-      <c r="H627" t="inlineStr"/>
+      <c r="H627" t="n">
+        <v>174747</v>
+      </c>
       <c r="I627" t="n">
         <v>2211372</v>
       </c>
@@ -28044,9 +27416,6 @@
       </c>
       <c r="M627" t="n">
         <v>6860544</v>
-      </c>
-      <c r="N627" t="n">
-        <v>174747</v>
       </c>
     </row>
     <row r="628">
@@ -28073,7 +27442,9 @@
       <c r="G628" t="n">
         <v>12560767</v>
       </c>
-      <c r="H628" t="inlineStr"/>
+      <c r="H628" t="n">
+        <v>1765674</v>
+      </c>
       <c r="I628" t="n">
         <v>1980019</v>
       </c>
@@ -28088,9 +27459,6 @@
       </c>
       <c r="M628" t="n">
         <v>11557548</v>
-      </c>
-      <c r="N628" t="n">
-        <v>1765674</v>
       </c>
     </row>
     <row r="629">
@@ -28117,7 +27485,9 @@
       <c r="G629" t="n">
         <v>1924477</v>
       </c>
-      <c r="H629" t="inlineStr"/>
+      <c r="H629" t="n">
+        <v>471910</v>
+      </c>
       <c r="I629" t="n">
         <v>543294</v>
       </c>
@@ -28132,9 +27502,6 @@
       </c>
       <c r="M629" t="n">
         <v>3130070</v>
-      </c>
-      <c r="N629" t="n">
-        <v>471910</v>
       </c>
     </row>
     <row r="630">
@@ -28161,7 +27528,9 @@
       <c r="G630" t="n">
         <v>462770</v>
       </c>
-      <c r="H630" t="inlineStr"/>
+      <c r="H630" t="n">
+        <v>563224</v>
+      </c>
       <c r="I630" t="n">
         <v>496514</v>
       </c>
@@ -28176,9 +27545,6 @@
       </c>
       <c r="M630" t="n">
         <v>842839</v>
-      </c>
-      <c r="N630" t="n">
-        <v>563224</v>
       </c>
     </row>
     <row r="631">
@@ -28205,7 +27571,9 @@
       <c r="G631" t="n">
         <v>2837731</v>
       </c>
-      <c r="H631" t="inlineStr"/>
+      <c r="H631" t="n">
+        <v>542237</v>
+      </c>
       <c r="I631" t="n">
         <v>3419481</v>
       </c>
@@ -28220,9 +27588,6 @@
       </c>
       <c r="M631" t="n">
         <v>16067340</v>
-      </c>
-      <c r="N631" t="n">
-        <v>542237</v>
       </c>
     </row>
     <row r="632">
@@ -28249,7 +27614,9 @@
       <c r="G632" t="n">
         <v>1121753</v>
       </c>
-      <c r="H632" t="inlineStr"/>
+      <c r="H632" t="n">
+        <v>577857</v>
+      </c>
       <c r="I632" t="n">
         <v>372430</v>
       </c>
@@ -28264,9 +27631,6 @@
       </c>
       <c r="M632" t="n">
         <v>2366515</v>
-      </c>
-      <c r="N632" t="n">
-        <v>577857</v>
       </c>
     </row>
     <row r="633">
@@ -28293,7 +27657,9 @@
       <c r="G633" t="n">
         <v>85962</v>
       </c>
-      <c r="H633" t="inlineStr"/>
+      <c r="H633" t="n">
+        <v>2183</v>
+      </c>
       <c r="I633" t="n">
         <v>26369</v>
       </c>
@@ -28308,9 +27674,6 @@
       </c>
       <c r="M633" t="n">
         <v>274119</v>
-      </c>
-      <c r="N633" t="n">
-        <v>2183</v>
       </c>
     </row>
     <row r="634">
@@ -28337,7 +27700,9 @@
       <c r="G634" t="n">
         <v>2896375</v>
       </c>
-      <c r="H634" t="inlineStr"/>
+      <c r="H634" t="n">
+        <v>301121</v>
+      </c>
       <c r="I634" t="n">
         <v>943290</v>
       </c>
@@ -28352,9 +27717,6 @@
       </c>
       <c r="M634" t="n">
         <v>2066986</v>
-      </c>
-      <c r="N634" t="n">
-        <v>301121</v>
       </c>
     </row>
     <row r="635">
@@ -28381,7 +27743,9 @@
       <c r="G635" t="n">
         <v>4080964</v>
       </c>
-      <c r="H635" t="inlineStr"/>
+      <c r="H635" t="n">
+        <v>385252</v>
+      </c>
       <c r="I635" t="n">
         <v>604363</v>
       </c>
@@ -28396,9 +27760,6 @@
       </c>
       <c r="M635" t="n">
         <v>4286530</v>
-      </c>
-      <c r="N635" t="n">
-        <v>385252</v>
       </c>
     </row>
     <row r="636">
@@ -28425,7 +27786,9 @@
       <c r="G636" t="n">
         <v>302820</v>
       </c>
-      <c r="H636" t="inlineStr"/>
+      <c r="H636" t="n">
+        <v>142296</v>
+      </c>
       <c r="I636" t="n">
         <v>19503</v>
       </c>
@@ -28440,9 +27803,6 @@
       </c>
       <c r="M636" t="n">
         <v>273402</v>
-      </c>
-      <c r="N636" t="n">
-        <v>142296</v>
       </c>
     </row>
     <row r="637">
@@ -28469,7 +27829,9 @@
       <c r="G637" t="n">
         <v>6454067</v>
       </c>
-      <c r="H637" t="inlineStr"/>
+      <c r="H637" t="n">
+        <v>1427672</v>
+      </c>
       <c r="I637" t="n">
         <v>3208239</v>
       </c>
@@ -28484,9 +27846,6 @@
       </c>
       <c r="M637" t="n">
         <v>4982366</v>
-      </c>
-      <c r="N637" t="n">
-        <v>1427672</v>
       </c>
     </row>
     <row r="638">
@@ -28513,7 +27872,9 @@
       <c r="G638" t="n">
         <v>20126181</v>
       </c>
-      <c r="H638" t="inlineStr"/>
+      <c r="H638" t="n">
+        <v>1693529</v>
+      </c>
       <c r="I638" t="n">
         <v>3659940</v>
       </c>
@@ -28528,9 +27889,6 @@
       </c>
       <c r="M638" t="n">
         <v>16131639</v>
-      </c>
-      <c r="N638" t="n">
-        <v>1693529</v>
       </c>
     </row>
     <row r="639">
@@ -28557,7 +27915,9 @@
       <c r="G639" t="n">
         <v>17580538</v>
       </c>
-      <c r="H639" t="inlineStr"/>
+      <c r="H639" t="n">
+        <v>1207464</v>
+      </c>
       <c r="I639" t="n">
         <v>1038896</v>
       </c>
@@ -28572,9 +27932,6 @@
       </c>
       <c r="M639" t="n">
         <v>3796846</v>
-      </c>
-      <c r="N639" t="n">
-        <v>1207464</v>
       </c>
     </row>
     <row r="640">
@@ -28601,7 +27958,9 @@
       <c r="G640" t="n">
         <v>1161881</v>
       </c>
-      <c r="H640" t="inlineStr"/>
+      <c r="H640" t="n">
+        <v>252975</v>
+      </c>
       <c r="I640" t="n">
         <v>410304</v>
       </c>
@@ -28616,9 +27975,6 @@
       </c>
       <c r="M640" t="n">
         <v>600288</v>
-      </c>
-      <c r="N640" t="n">
-        <v>252975</v>
       </c>
     </row>
     <row r="641">
@@ -28645,7 +28001,9 @@
       <c r="G641" t="n">
         <v>2941231</v>
       </c>
-      <c r="H641" t="inlineStr"/>
+      <c r="H641" t="n">
+        <v>838375</v>
+      </c>
       <c r="I641" t="n">
         <v>1885412</v>
       </c>
@@ -28660,9 +28018,6 @@
       </c>
       <c r="M641" t="n">
         <v>3613378</v>
-      </c>
-      <c r="N641" t="n">
-        <v>838375</v>
       </c>
     </row>
     <row r="642">
@@ -28707,7 +28062,6 @@
       <c r="M642" t="n">
         <v>261154371</v>
       </c>
-      <c r="N642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -28751,7 +28105,6 @@
       <c r="M643" t="n">
         <v>7122899</v>
       </c>
-      <c r="N643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -28795,7 +28148,6 @@
       <c r="M644" t="n">
         <v>3822161</v>
       </c>
-      <c r="N644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -28839,7 +28191,6 @@
       <c r="M645" t="n">
         <v>888968</v>
       </c>
-      <c r="N645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -28883,7 +28234,6 @@
       <c r="M646" t="n">
         <v>21755902</v>
       </c>
-      <c r="N646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -28927,7 +28277,6 @@
       <c r="M647" t="n">
         <v>5828488</v>
       </c>
-      <c r="N647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -28971,7 +28320,6 @@
       <c r="M648" t="n">
         <v>85318</v>
       </c>
-      <c r="N648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -29015,7 +28363,6 @@
       <c r="M649" t="n">
         <v>10118099</v>
       </c>
-      <c r="N649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -29059,7 +28406,6 @@
       <c r="M650" t="n">
         <v>37906985</v>
       </c>
-      <c r="N650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -29103,7 +28449,6 @@
       <c r="M651" t="n">
         <v>577359</v>
       </c>
-      <c r="N651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -29147,7 +28492,6 @@
       <c r="M652" t="n">
         <v>272815</v>
       </c>
-      <c r="N652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -29191,7 +28535,6 @@
       <c r="M653" t="n">
         <v>8945464</v>
       </c>
-      <c r="N653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -29235,7 +28578,6 @@
       <c r="M654" t="n">
         <v>265323</v>
       </c>
-      <c r="N654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -29279,7 +28621,6 @@
       <c r="M655" t="n">
         <v>49871978</v>
       </c>
-      <c r="N655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -29323,7 +28664,6 @@
       <c r="M656" t="n">
         <v>3012830</v>
       </c>
-      <c r="N656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -29367,7 +28707,6 @@
       <c r="M657" t="n">
         <v>4136654</v>
       </c>
-      <c r="N657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -29411,7 +28750,6 @@
       <c r="M658" t="n">
         <v>675291</v>
       </c>
-      <c r="N658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -29455,7 +28793,6 @@
       <c r="M659" t="n">
         <v>12438280</v>
       </c>
-      <c r="N659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -29499,7 +28836,6 @@
       <c r="M660" t="n">
         <v>15719670</v>
       </c>
-      <c r="N660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -29543,7 +28879,6 @@
       <c r="M661" t="n">
         <v>3441070</v>
       </c>
-      <c r="N661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -29587,7 +28922,6 @@
       <c r="M662" t="n">
         <v>1052714</v>
       </c>
-      <c r="N662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -29631,7 +28965,6 @@
       <c r="M663" t="n">
         <v>8950144</v>
       </c>
-      <c r="N663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -29675,7 +29008,6 @@
       <c r="M664" t="n">
         <v>4220722</v>
       </c>
-      <c r="N664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -29719,7 +29051,6 @@
       <c r="M665" t="n">
         <v>344780</v>
       </c>
-      <c r="N665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -29763,7 +29094,6 @@
       <c r="M666" t="n">
         <v>1011317</v>
       </c>
-      <c r="N666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -29807,7 +29137,6 @@
       <c r="M667" t="n">
         <v>4310669</v>
       </c>
-      <c r="N667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -29851,7 +29180,6 @@
       <c r="M668" t="n">
         <v>377734</v>
       </c>
-      <c r="N668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -29895,7 +29223,6 @@
       <c r="M669" t="n">
         <v>4394601</v>
       </c>
-      <c r="N669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -29939,7 +29266,6 @@
       <c r="M670" t="n">
         <v>11853378</v>
       </c>
-      <c r="N670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -29983,7 +29309,6 @@
       <c r="M671" t="n">
         <v>9962970</v>
       </c>
-      <c r="N671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -30027,7 +29352,6 @@
       <c r="M672" t="n">
         <v>917823</v>
       </c>
-      <c r="N672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -30071,7 +29395,6 @@
       <c r="M673" t="n">
         <v>26871965</v>
       </c>
-      <c r="N673" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
